--- a/system_test.xlsx
+++ b/system_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28822"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B71694CC-6E39-47A9-BB07-3C4D2FAAF24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1167E2F-3146-49C3-9407-BC7F11643F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="379">
   <si>
     <t>No</t>
   </si>
@@ -1208,10 +1208,19 @@
     <t>「エラーのため表示できません」と表示される。アカウント登録フォームは非表示　　ボタンからログイン画面へ遷移できる</t>
   </si>
   <si>
-    <t>管理者でログイン後、一般アカウントでログインしアカウント登録画面に遷移時、エラー表示されることを確認</t>
-  </si>
-  <si>
-    <t>アカウント検査、アカウント一覧画面</t>
+    <t>管理者でログイン後、起動し直し一般アカウントでログインすると、ナビゲーションのアカウント一覧・アカウント登録が非表示になることを確認</t>
+  </si>
+  <si>
+    <t>管理者アカウントでログイン後、別のウィンドウでアプリ起動し、アカウント権限が一般のアカウントでログイン</t>
+  </si>
+  <si>
+    <t>ナビゲーションのアカウント一覧・アカウント登録が非表示になることを確認</t>
+  </si>
+  <si>
+    <t>一般アカウントでアカウント一覧・登録が表示されてしまう</t>
+  </si>
+  <si>
+    <t>アカウント検索、アカウント一覧画面</t>
   </si>
   <si>
     <t>エラー時画面表示</t>
@@ -1534,17 +1543,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF505050"/>
       </left>
       <right style="thin">
@@ -1648,6 +1646,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1793,30 +1802,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1825,59 +1840,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1889,10 +1886,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1901,27 +1898,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2266,8 +2275,8 @@
   <dimension ref="A1:R138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="F128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J130" sqref="J130"/>
+      <pane ySplit="2" topLeftCell="G122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L128" sqref="L128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6273,7 +6282,7 @@
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="17"/>
-      <c r="J96" s="71"/>
+      <c r="J96" s="67"/>
       <c r="K96" s="17"/>
       <c r="L96" s="17"/>
       <c r="M96" s="3"/>
@@ -7039,7 +7048,7 @@
       </c>
       <c r="M116" s="43"/>
     </row>
-    <row r="117" spans="1:18" ht="70.5">
+    <row r="117" spans="1:18" ht="102" customHeight="1">
       <c r="A117" s="9">
         <v>18</v>
       </c>
@@ -7229,122 +7238,122 @@
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" ht="124.5" customHeight="1">
-      <c r="A122" s="32">
+      <c r="A122" s="9">
         <v>23</v>
       </c>
-      <c r="B122" s="52" t="s">
+      <c r="B122" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C122" s="53" t="s">
+      <c r="C122" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="D122" s="54" t="s">
+      <c r="D122" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="E122" s="32" t="s">
+      <c r="E122" s="9" t="s">
         <v>347</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G122" s="32" t="s">
+      <c r="G122" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="H122" s="55" t="s">
+      <c r="H122" s="31" t="s">
         <v>349</v>
       </c>
       <c r="I122" s="51"/>
-      <c r="J122" s="72">
+      <c r="J122" s="68">
         <v>45763</v>
       </c>
-      <c r="K122" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="L122" s="54" t="s">
+      <c r="K122" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L122" s="52" t="s">
         <v>21</v>
       </c>
       <c r="M122" s="43"/>
     </row>
     <row r="123" spans="1:18" ht="70.5" hidden="1">
-      <c r="A123" s="31">
+      <c r="A123" s="96">
         <v>24</v>
       </c>
-      <c r="B123" s="46" t="s">
+      <c r="B123" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="94" t="s">
         <v>345</v>
       </c>
-      <c r="D123" s="68" t="s">
+      <c r="D123" s="95" t="s">
         <v>346</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="10" t="s">
         <v>350</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="H123" s="9" t="s">
+      <c r="H123" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="I123" s="69"/>
-      <c r="J123" s="78">
+      <c r="I123" s="65"/>
+      <c r="J123" s="74">
         <v>45765</v>
       </c>
-      <c r="K123" s="75"/>
-      <c r="L123" s="54"/>
-    </row>
-    <row r="124" spans="1:18" ht="93" customHeight="1">
-      <c r="A124" s="64">
+      <c r="K123" s="71"/>
+      <c r="L123" s="52"/>
+    </row>
+    <row r="124" spans="1:18" ht="53.25">
+      <c r="A124" s="61">
         <v>25</v>
       </c>
-      <c r="B124" s="65" t="s">
+      <c r="B124" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C124" s="66" t="s">
+      <c r="C124" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D124" s="65" t="s">
+      <c r="D124" s="62" t="s">
         <v>346</v>
       </c>
-      <c r="E124" s="66" t="s">
+      <c r="E124" s="63" t="s">
         <v>352</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G124" s="66" t="s">
+      <c r="G124" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="H124" s="67" t="s">
+      <c r="H124" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="I124" s="76"/>
-      <c r="J124" s="74">
+      <c r="I124" s="72"/>
+      <c r="J124" s="70">
         <v>45764</v>
       </c>
-      <c r="K124" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="L124" s="54" t="s">
+      <c r="K124" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L124" s="52" t="s">
         <v>21</v>
       </c>
       <c r="M124" s="43"/>
     </row>
-    <row r="125" spans="1:18" ht="93" hidden="1" customHeight="1">
+    <row r="125" spans="1:18" ht="101.25" customHeight="1">
       <c r="A125" s="9">
         <v>26</v>
       </c>
-      <c r="B125" s="65" t="s">
+      <c r="B125" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C125" s="66" t="s">
+      <c r="C125" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D125" s="65" t="s">
+      <c r="D125" s="62" t="s">
         <v>346</v>
       </c>
       <c r="E125" s="9" t="s">
@@ -7354,120 +7363,122 @@
         <v>17</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="H125" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="I125" s="76"/>
-      <c r="J125" s="79">
+        <v>356</v>
+      </c>
+      <c r="H125" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="I125" s="72" t="s">
+        <v>358</v>
+      </c>
+      <c r="J125" s="75">
         <v>45765</v>
       </c>
-      <c r="K125" s="77"/>
-      <c r="L125" s="63"/>
+      <c r="K125" s="73"/>
+      <c r="L125" s="60"/>
       <c r="M125" s="43"/>
     </row>
     <row r="126" spans="1:18" ht="83.25" customHeight="1">
-      <c r="A126" s="64">
+      <c r="A126" s="61">
         <v>27</v>
       </c>
-      <c r="B126" s="61" t="s">
+      <c r="B126" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="C126" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="D126" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="E126" s="61" t="s">
-        <v>358</v>
+      <c r="C126" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="D126" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="E126" s="58" t="s">
+        <v>361</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G126" s="61" t="s">
-        <v>359</v>
-      </c>
-      <c r="H126" s="61" t="s">
-        <v>360</v>
+      <c r="G126" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="H126" s="58" t="s">
+        <v>363</v>
       </c>
       <c r="I126" s="51"/>
-      <c r="J126" s="79">
+      <c r="J126" s="75">
         <v>45765</v>
       </c>
-      <c r="K126" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="L126" s="54" t="s">
+      <c r="K126" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L126" s="52" t="s">
         <v>21</v>
       </c>
       <c r="M126" s="43"/>
     </row>
     <row r="127" spans="1:18" ht="53.25">
-      <c r="A127" s="70">
+      <c r="A127" s="66">
         <v>28</v>
       </c>
       <c r="B127" s="50" t="s">
         <v>184</v>
       </c>
       <c r="C127" s="51" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D127" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="E127" s="57" t="s">
-        <v>362</v>
+        <v>360</v>
+      </c>
+      <c r="E127" s="54" t="s">
+        <v>365</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G127" s="51" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H127" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="I127" s="51"/>
+      <c r="J127" s="75">
+        <v>45769</v>
+      </c>
+      <c r="K127" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L127" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M127" s="43"/>
+    </row>
+    <row r="128" spans="1:18" ht="50.25">
+      <c r="A128" s="61">
+        <v>29</v>
+      </c>
+      <c r="B128" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="C128" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="I127" s="50"/>
-      <c r="J127" s="79">
-        <v>45769</v>
-      </c>
-      <c r="K127" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="L127" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="M127" s="43"/>
-    </row>
-    <row r="128" spans="1:18" ht="50.25">
-      <c r="A128" s="64">
-        <v>29</v>
-      </c>
-      <c r="B128" s="59" t="s">
-        <v>365</v>
-      </c>
-      <c r="C128" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="D128" s="56" t="s">
-        <v>357</v>
+      <c r="D128" s="53" t="s">
+        <v>360</v>
       </c>
       <c r="E128" s="51" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G128" s="51" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H128" s="51" t="s">
-        <v>368</v>
-      </c>
-      <c r="I128" s="80"/>
-      <c r="J128" s="79">
+        <v>371</v>
+      </c>
+      <c r="I128" s="76"/>
+      <c r="J128" s="75">
         <v>45765</v>
       </c>
       <c r="K128" s="50" t="s">
@@ -7479,22 +7490,22 @@
       <c r="M128" s="44"/>
     </row>
     <row r="129" spans="1:18" ht="17.25">
-      <c r="A129" s="82" t="s">
+      <c r="A129" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="B129" s="83" t="s">
-        <v>369</v>
-      </c>
-      <c r="C129" s="82"/>
-      <c r="D129" s="82"/>
-      <c r="E129" s="82"/>
-      <c r="F129" s="82"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="82"/>
-      <c r="I129" s="84"/>
-      <c r="J129" s="85"/>
-      <c r="K129" s="84"/>
-      <c r="L129" s="84"/>
+      <c r="B129" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="C129" s="78"/>
+      <c r="D129" s="78"/>
+      <c r="E129" s="78"/>
+      <c r="F129" s="78"/>
+      <c r="G129" s="78"/>
+      <c r="H129" s="78"/>
+      <c r="I129" s="80"/>
+      <c r="J129" s="81"/>
+      <c r="K129" s="80"/>
+      <c r="L129" s="80"/>
       <c r="M129" s="3"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -7503,139 +7514,139 @@
       <c r="R129" s="1"/>
     </row>
     <row r="130" spans="1:18" ht="282">
-      <c r="A130" s="64">
+      <c r="A130" s="61">
         <v>1</v>
       </c>
-      <c r="B130" s="92" t="s">
-        <v>370</v>
-      </c>
-      <c r="C130" s="86" t="s">
-        <v>371</v>
-      </c>
-      <c r="D130" s="95" t="s">
-        <v>372</v>
-      </c>
-      <c r="E130" s="96" t="s">
+      <c r="B130" s="88" t="s">
         <v>373</v>
       </c>
-      <c r="F130" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" s="86" t="s">
+      <c r="C130" s="82" t="s">
         <v>374</v>
       </c>
-      <c r="H130" s="66" t="s">
+      <c r="D130" s="91" t="s">
         <v>375</v>
       </c>
-      <c r="I130" s="81"/>
-      <c r="J130" s="81"/>
-      <c r="K130" s="81"/>
-      <c r="L130" s="81"/>
+      <c r="E130" s="92" t="s">
+        <v>376</v>
+      </c>
+      <c r="F130" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="H130" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="I130" s="77"/>
+      <c r="J130" s="77"/>
+      <c r="K130" s="77"/>
+      <c r="L130" s="77"/>
       <c r="M130" s="44"/>
     </row>
     <row r="131" spans="1:18" ht="15.75">
-      <c r="A131" s="64">
+      <c r="A131" s="61">
         <v>2</v>
       </c>
-      <c r="B131" s="56"/>
-      <c r="C131" s="80"/>
-      <c r="D131" s="94"/>
-      <c r="E131" s="94"/>
-      <c r="F131" s="90"/>
-      <c r="G131" s="56"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="90"/>
+      <c r="E131" s="90"/>
+      <c r="F131" s="86"/>
+      <c r="G131" s="53"/>
       <c r="H131" s="50"/>
-      <c r="I131" s="56"/>
-      <c r="J131" s="81"/>
-      <c r="K131" s="56"/>
-      <c r="L131" s="56"/>
+      <c r="I131" s="53"/>
+      <c r="J131" s="77"/>
+      <c r="K131" s="53"/>
+      <c r="L131" s="53"/>
       <c r="M131" s="44"/>
     </row>
     <row r="132" spans="1:18" ht="15.75">
-      <c r="A132" s="70">
+      <c r="A132" s="66">
         <v>3</v>
       </c>
-      <c r="B132" s="56"/>
-      <c r="C132" s="56"/>
-      <c r="D132" s="81"/>
-      <c r="E132" s="87"/>
-      <c r="F132" s="86"/>
-      <c r="G132" s="56"/>
-      <c r="H132" s="56"/>
-      <c r="I132" s="56"/>
-      <c r="J132" s="56"/>
-      <c r="K132" s="56"/>
-      <c r="L132" s="56"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="83"/>
+      <c r="F132" s="82"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="53"/>
+      <c r="I132" s="53"/>
+      <c r="J132" s="53"/>
+      <c r="K132" s="53"/>
+      <c r="L132" s="53"/>
       <c r="M132" s="44"/>
     </row>
     <row r="133" spans="1:18" ht="15.75">
-      <c r="A133" s="64">
+      <c r="A133" s="61">
         <v>4</v>
       </c>
-      <c r="B133" s="56"/>
-      <c r="C133" s="60"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="88"/>
-      <c r="F133" s="90"/>
-      <c r="G133" s="60"/>
-      <c r="H133" s="60"/>
-      <c r="I133" s="60"/>
-      <c r="J133" s="60"/>
-      <c r="K133" s="60"/>
-      <c r="L133" s="60"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="85"/>
+      <c r="E133" s="84"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="57"/>
+      <c r="K133" s="57"/>
+      <c r="L133" s="57"/>
     </row>
     <row r="134" spans="1:18" ht="102.75" customHeight="1">
-      <c r="A134" s="70">
+      <c r="A134" s="66">
         <v>5</v>
       </c>
-      <c r="B134" s="56"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="81"/>
-      <c r="E134" s="91"/>
-      <c r="F134" s="86"/>
-      <c r="G134" s="60"/>
-      <c r="H134" s="60"/>
-      <c r="I134" s="60"/>
-      <c r="J134" s="60"/>
-      <c r="K134" s="60"/>
-      <c r="L134" s="60"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="87"/>
+      <c r="F134" s="82"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="57"/>
+      <c r="K134" s="57"/>
+      <c r="L134" s="57"/>
     </row>
     <row r="135" spans="1:18" ht="15.75">
-      <c r="A135" s="64">
+      <c r="A135" s="61">
         <v>6</v>
       </c>
-      <c r="B135" s="56"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="81"/>
-      <c r="E135" s="88"/>
-      <c r="F135" s="86"/>
-      <c r="G135" s="60"/>
-      <c r="H135" s="60"/>
-      <c r="I135" s="60"/>
-      <c r="J135" s="60"/>
-      <c r="K135" s="60"/>
-      <c r="L135" s="60"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="84"/>
+      <c r="F135" s="82"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="57"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="57"/>
+      <c r="K135" s="57"/>
+      <c r="L135" s="57"/>
     </row>
     <row r="136" spans="1:18" ht="15.75">
-      <c r="A136" s="70">
+      <c r="A136" s="66">
         <v>7</v>
       </c>
-      <c r="B136" s="60"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="60"/>
-      <c r="E136" s="60"/>
-      <c r="F136" s="58"/>
-      <c r="G136" s="60"/>
-      <c r="H136" s="60"/>
-      <c r="I136" s="60"/>
-      <c r="J136" s="60"/>
-      <c r="K136" s="60"/>
-      <c r="L136" s="60"/>
+      <c r="B136" s="57"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="55"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
+      <c r="I136" s="57"/>
+      <c r="J136" s="57"/>
+      <c r="K136" s="57"/>
+      <c r="L136" s="57"/>
     </row>
     <row r="137" spans="1:18" ht="15.75"/>
     <row r="138" spans="1:18" ht="15.75">
-      <c r="A138" s="93"/>
-      <c r="B138" s="81"/>
-      <c r="C138" s="86"/>
+      <c r="A138" s="89"/>
+      <c r="B138" s="77"/>
+      <c r="C138" s="82"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/system_test.xlsx
+++ b/system_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28822"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1167E2F-3146-49C3-9407-BC7F11643F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE1AE1C8-5010-4581-AF66-A8239B3864CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="380">
   <si>
     <t>No</t>
   </si>
@@ -1296,6 +1296,11 @@
 ・当該アカウントの姓、カナ（姓）が変更されていること
 ・削除フラグが無効になっていること
 ・更新日時が実施日時になっていること</t>
+  </si>
+  <si>
+    <t>regist_confirm.jspでナビゲーションの表示が重複している
+アカウントの郵便番号の先頭が0の時、アカウント一覧で更新ボタンを押すと、0がなくなる
+登録日時と更新日時に何も表示されていない</t>
   </si>
 </sst>
 </file>
@@ -2275,8 +2280,8 @@
   <dimension ref="A1:R138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="G122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L128" sqref="L128"/>
+      <pane ySplit="2" topLeftCell="B120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7538,7 +7543,9 @@
       <c r="H130" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="I130" s="77"/>
+      <c r="I130" s="82" t="s">
+        <v>379</v>
+      </c>
       <c r="J130" s="77"/>
       <c r="K130" s="77"/>
       <c r="L130" s="77"/>
